--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1656.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1656.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.713700013510696</v>
+        <v>3.2890784740448</v>
       </c>
       <c r="B1">
-        <v>3.397710290809212</v>
+        <v>2.68403434753418</v>
       </c>
       <c r="C1">
-        <v>2.877726859496757</v>
+        <v>2.384029865264893</v>
       </c>
       <c r="D1">
-        <v>2.266375221475833</v>
+        <v>2.616694450378418</v>
       </c>
       <c r="E1">
-        <v>1.336027437730554</v>
+        <v>3.253950595855713</v>
       </c>
     </row>
   </sheetData>
